--- a/test/testIntegerRatio/integerRatioPerformance.xlsx
+++ b/test/testIntegerRatio/integerRatioPerformance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="22">
   <si>
     <t>RData</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>160.41</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -505,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,6 +1244,696 @@
         <v>7</v>
       </c>
     </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="6">
+        <v>12.6999999999999</v>
+      </c>
+      <c r="E32" s="6">
+        <v>11020.074704889301</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.81173427754624194</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="6">
+        <v>41.28</v>
+      </c>
+      <c r="E33" s="6">
+        <v>11020.074704889301</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.81173427754624194</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6">
+        <v>91.469999999999899</v>
+      </c>
+      <c r="E34" s="6">
+        <v>11020.074704889301</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.81173427754624194</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="6">
+        <v>161.19</v>
+      </c>
+      <c r="E35" s="6">
+        <v>11020.074704889301</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.81173427754624194</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="6">
+        <v>251.44</v>
+      </c>
+      <c r="E36" s="6">
+        <v>11020.074704889301</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.81173427754624194</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="8">
+        <v>10.940000000000101</v>
+      </c>
+      <c r="E37" s="8">
+        <v>11503.9715611148</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.64910494823720299</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="8">
+        <v>41.190000000000097</v>
+      </c>
+      <c r="E38" s="8">
+        <v>11503.9715611148</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.64910494823720299</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="8">
+        <v>91</v>
+      </c>
+      <c r="E39" s="8">
+        <v>11503.9715611148</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.64910494823720299</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="8">
+        <v>161.05000000000001</v>
+      </c>
+      <c r="E40" s="8">
+        <v>11503.9715611148</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0.64910494823720299</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="8">
+        <v>251.07</v>
+      </c>
+      <c r="E41" s="8">
+        <v>11503.9715611148</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.64910494823720299</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="10">
+        <v>13.090000000000099</v>
+      </c>
+      <c r="E42" s="10">
+        <v>11020.0736046682</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0.84834352980011496</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="10">
+        <v>42.96</v>
+      </c>
+      <c r="E43" s="10">
+        <v>11020.0736046682</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0.84834352980011496</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="10">
+        <v>93.0300000000002</v>
+      </c>
+      <c r="E44" s="10">
+        <v>11020.0736046682</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0.84834352980011496</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="10">
+        <v>163.65</v>
+      </c>
+      <c r="E45" s="10">
+        <v>11020.0736046682</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0.84834352980011496</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="10">
+        <v>253.25</v>
+      </c>
+      <c r="E46" s="10">
+        <v>11020.0736046682</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0.84834352980011496</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="6">
+        <v>10.340000000000099</v>
+      </c>
+      <c r="E47" s="6">
+        <v>10726.1211832636</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.81090511157616396</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="6">
+        <v>40.649999999999601</v>
+      </c>
+      <c r="E48" s="6">
+        <v>10726.1211832636</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.81090511157616396</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="6">
+        <v>90.410000000000807</v>
+      </c>
+      <c r="E49" s="6">
+        <v>10726.1211832636</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.81090511157616396</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="6">
+        <v>160.36000000000101</v>
+      </c>
+      <c r="E50" s="6">
+        <v>10726.1211832636</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.81090511157616396</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="6">
+        <v>250.33</v>
+      </c>
+      <c r="E51" s="6">
+        <v>10726.1211832636</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.81090511157616396</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="8">
+        <v>10.29</v>
+      </c>
+      <c r="E52" s="8">
+        <v>11826.570965259099</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0.64399579796987605</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="8">
+        <v>40.279999999999703</v>
+      </c>
+      <c r="E53" s="8">
+        <v>11826.570965259099</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.64399579796987605</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="8">
+        <v>90.300000000000196</v>
+      </c>
+      <c r="E54" s="8">
+        <v>11826.570965259099</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0.64399579796987605</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="8">
+        <v>160.34</v>
+      </c>
+      <c r="E55" s="8">
+        <v>11826.570965259099</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0.64399579796987605</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="8">
+        <v>250.31</v>
+      </c>
+      <c r="E56" s="8">
+        <v>11826.570965259099</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0.64399579796987605</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="10">
+        <v>10.4400000000005</v>
+      </c>
+      <c r="E57" s="10">
+        <v>10522.7824905131</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0.84641770890050305</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="10">
+        <v>40.269999999999499</v>
+      </c>
+      <c r="E58" s="10">
+        <v>10684.918306527899</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0.84703874137921398</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="10">
+        <v>90.269999999999499</v>
+      </c>
+      <c r="E59" s="10">
+        <v>10691.3345415073</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0.84709331635163498</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="10">
+        <v>160.30999999999901</v>
+      </c>
+      <c r="E60" s="10">
+        <v>10691.3345415073</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0.84709331635163498</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="10">
+        <v>250.28</v>
+      </c>
+      <c r="E61" s="10">
+        <v>10691.3345415073</v>
+      </c>
+      <c r="F61" s="10">
+        <v>0.84709331635163498</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
